--- a/data/trans_bre/P3A$yo-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Edad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.90929753519619</v>
+        <v>8.872428536187662</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1810055019608491</v>
+        <v>0.1585802460697702</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.76340820127026</v>
+        <v>29.85535087143863</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.7464473457516771</v>
+        <v>0.7035546252959251</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>27.13397316425167</v>
+        <v>27.13397316425165</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4130649222635972</v>
+        <v>0.4130649222635967</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>21.34921103606653</v>
+        <v>21.01962797161661</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.301141597822473</v>
+        <v>0.2990288695449996</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>33.92460423258828</v>
+        <v>33.29656472892326</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5668373489385945</v>
+        <v>0.5530706110270706</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.03699984587388</v>
+        <v>18.07727500812299</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.2286858555815705</v>
+        <v>0.2298221014980376</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.64653999812936</v>
+        <v>25.9058240185978</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3594231661435907</v>
+        <v>0.3616685971876856</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>24.96671282335262</v>
+        <v>24.96671282335261</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3450069363488835</v>
+        <v>0.3450069363488833</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>21.58387389784114</v>
+        <v>21.46430380840874</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2843167165825832</v>
+        <v>0.2835179399842663</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>28.81990222673184</v>
+        <v>28.47728333203097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4171412079814856</v>
+        <v>0.4122990740130942</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>28.29110437983958</v>
+        <v>28.29110437983962</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.4118952582185179</v>
+        <v>0.4118952582185185</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.60292733031393</v>
+        <v>24.94474940099593</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.3426891403331987</v>
+        <v>0.3485122705592255</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>32.03879378193619</v>
+        <v>31.91337467836625</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.4940160260415176</v>
+        <v>0.4902146676562686</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>31.71532827877378</v>
+        <v>31.71532827877377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.5070427393997065</v>
+        <v>0.5070427393997062</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>27.54034405417773</v>
+        <v>27.46373814678154</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4152998078607912</v>
+        <v>0.4145599190347061</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>36.13446085200072</v>
+        <v>36.48347392411008</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6158246218195748</v>
+        <v>0.6243938137418936</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>25.69283752068118</v>
+        <v>25.69283752068114</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.5234195393089973</v>
+        <v>0.5234195393089962</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>20.47118830461021</v>
+        <v>19.98983084363223</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3908021029377071</v>
+        <v>0.3716666157972502</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>31.10481986781386</v>
+        <v>31.49165545283799</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.7020461494374552</v>
+        <v>0.7037237303168836</v>
       </c>
     </row>
     <row r="25">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="28">
